--- a/evaluation/experiment/data.xlsx
+++ b/evaluation/experiment/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/evaluation/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C35BD3-EFCE-004C-9F5C-9B8094B4BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB4007-DAAC-6443-B88A-034FCD2345A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="1720" windowWidth="35640" windowHeight="23660" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
+    <workbookView xWindow="1900" yWindow="700" windowWidth="45000" windowHeight="22840" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="2" r:id="rId1"/>
     <sheet name="Import" sheetId="1" r:id="rId2"/>
+    <sheet name="Diagrams" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="171">
   <si>
     <t>/DMO/I_Travel_D</t>
   </si>
@@ -336,9 +337,6 @@
     <t>Relationship has no join clauses.</t>
   </si>
   <si>
-    <t>Hierachical associations not supported.</t>
-  </si>
-  <si>
     <t>Datatype of attributes FLDLOGSOVERDUEBYVALUE and FLDLOGSOVERDUEBYVALUE incompatible</t>
   </si>
   <si>
@@ -508,6 +506,51 @@
   </si>
   <si>
     <t>Tableprefix on attributes (equivalent). Reexport of subassociation missing. Where-Clause missing.</t>
+  </si>
+  <si>
+    <t>Customer specific</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Syntax correct</t>
+  </si>
+  <si>
+    <t>Syntax incorrect</t>
+  </si>
+  <si>
+    <t>Output correct</t>
+  </si>
+  <si>
+    <t>Output incorrect</t>
+  </si>
+  <si>
+    <t>Hierarchical associations not supported.</t>
+  </si>
+  <si>
+    <t>Displayed</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>ER2CDS Error</t>
+  </si>
+  <si>
+    <t>ER2CDS Warning</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>Avg.</t>
+  </si>
+  <si>
+    <t>Std. Deviation</t>
   </si>
 </sst>
 </file>
@@ -666,12 +709,5658 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>Relations in the dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Create!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Z_I_MKPF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Z_I_BESTELLANFORDERUNG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Z_I_SERIALNMBRDELIVERY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Z_I_CHANGEDOCUMENTITEM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Z_I_DELIVANALYSIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Z_I_PRODUCTION</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Z_I_PURCHDOCBASE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Z_I_AUSSENLAGER</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Z_I_SDSERIALNUMBER</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Z_I_Notification</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>I_ACMSettlmtCtnHdrCostRevCkpt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>I_MobileUserSession</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>I_MDOFIELD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>I_FinSubstitutionRuleSubstnTP</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>I_FieldLogisticsSupplier</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>I_BkPOABankAccount</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>I_BusPartMobileNumberGovTP</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>I_BPRelshpCntctPersnEmlAddrTP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I_ProdnRtgOperationTP</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>I_SourcingProject</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Create!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1B6-C14C-99FF-EF949C6A024B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="632363039"/>
+        <c:axId val="632364751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="632363039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Customer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> specific	            Standard		</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="632364751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="632364751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Relations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632363039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Relations and elements in the data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>set</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Import!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Import!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5211-4341-839B-C7BA780EEF88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696393775"/>
+        <c:axId val="696395487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696393775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Relations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696395487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="696395487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696393775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Syntactical</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> correctness</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Customer specific</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Syntax correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Syntax incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$K$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9227-584B-869F-C7983F20D906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$K$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Syntax correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Syntax incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$K$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9227-584B-869F-C7983F20D906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="678058607"/>
+        <c:axId val="1089195263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="678058607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089195263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1089195263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678058607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Correctness of output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Customer specific</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$R$3:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Output correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Output incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$R$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-827F-D44C-9F92-AC9974D123FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$R$3:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Output correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Output incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$R$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-827F-D44C-9F92-AC9974D123FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="616854639"/>
+        <c:axId val="652022031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="616854639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652022031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="652022031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616854639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Imported CDS view entities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-AT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$J$30:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Imported</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Displayed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Correct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ER2CDS Error</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ER2CDS Warning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$J$31:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D48-BB4B-9E58-C9AE9A2DF009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="868004655"/>
+        <c:axId val="616745199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="868004655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616745199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="616745199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868004655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4026077-1E62-194A-99B9-2B2B505CCBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B68B95A-8E9C-5847-9A67-180B23242447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0ACE69-5DA9-0765-1638-DF1A8DFABA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90C140F-8E10-4D97-4363-10422AF53082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEA75AF-E146-B30F-08C8-C9D0901259A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E21" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:F21" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F9DADB49-9E36-4445-8133-ABDB69FA8F28}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{613C137D-B3C7-D04E-9099-6B9913178B57}" name="Relations"/>
+    <tableColumn id="7" xr3:uid="{F8378F5E-1B23-044B-BCCF-413DF1BCC0A9}" name="Elements"/>
     <tableColumn id="3" xr3:uid="{A224C5CE-8087-2248-919C-820DCD052F2A}" name="Syntax"/>
     <tableColumn id="4" xr3:uid="{84D5766F-5980-E54C-924A-B5E993FA9B1F}" name="Output"/>
     <tableColumn id="6" xr3:uid="{015383A4-202E-814F-96B5-E37F45DDEB57}" name="Text"/>
@@ -1017,347 +6706,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672D2B8-471A-1F4B-AB68-DDF5C0CFA150}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
+      <c r="C2">
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2">
+        <f>MIN(Table2[Relations])</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>MAX(Table2[Relations])</f>
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(Table2[Relations])</f>
+        <v>5.55</v>
+      </c>
+      <c r="M2">
+        <f>STDEV(Table2[Relations])</f>
+        <v>6.1170598372610003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>93</v>
+      <c r="C3">
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <f>MIN(Table2[Elements])</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>MAX(Table2[Elements])</f>
+        <v>128</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(Table2[Elements])</f>
+        <v>31.05</v>
+      </c>
+      <c r="M3">
+        <f>STDEV(Table2[Elements])</f>
+        <v>30.787001700136546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>93</v>
+      <c r="C4">
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>93</v>
+      <c r="C5">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>93</v>
+      <c r="C6">
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>93</v>
+      <c r="C7">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>93</v>
+      <c r="C8">
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>93</v>
+      <c r="C9">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>93</v>
+      <c r="C10">
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
       </c>
       <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="B11">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
+      <c r="C11">
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>93</v>
+      <c r="C12">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>93</v>
+      <c r="C13">
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>93</v>
+      <c r="C14">
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>93</v>
+      <c r="C15">
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>93</v>
+      <c r="C17">
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>140</v>
+      <c r="C21">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1370,10 +7176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F650F4-ED0B-E44F-A328-2BD491C06275}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,10 +7189,11 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="60.1640625" customWidth="1"/>
     <col min="7" max="7" width="85.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1411,8 +7218,23 @@
       <c r="H1" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1428,8 +7250,27 @@
       <c r="E2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2">
+        <f>MIN(Table1[Relations])</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>MAX(Table1[Relations])</f>
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(Table1[Relations])</f>
+        <v>3.89</v>
+      </c>
+      <c r="O2">
+        <f>STDEV(Table1[Relations])</f>
+        <v>4.9967565237437537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1445,8 +7286,27 @@
       <c r="E3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <f>MIN(Table1[Elements])</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>MAX(Table1[Elements])</f>
+        <v>325</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(Table1[Elements])</f>
+        <v>34.380000000000003</v>
+      </c>
+      <c r="O3">
+        <f>STDEV(Table1[Elements])</f>
+        <v>49.347414042959464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +7323,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +7340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +7357,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +7374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +7391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1548,7 +7408,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1565,7 +7425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +7442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +7459,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1616,7 +7476,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +7493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +7510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +7856,7 @@
         <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2033,7 +7893,7 @@
         <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H37" t="s">
         <v>98</v>
@@ -2041,7 +7901,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -2056,7 +7916,7 @@
         <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2127,7 +7987,7 @@
         <v>93</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="H42" t="s">
         <v>98</v>
@@ -2785,7 +8645,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2800,15 +8660,15 @@
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2825,7 +8685,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -2845,7 +8705,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -2865,7 +8725,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2880,12 +8740,12 @@
         <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -2902,7 +8762,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2919,7 +8779,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2936,7 +8796,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2953,7 +8813,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2970,7 +8830,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2987,7 +8847,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -3004,7 +8864,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -3021,7 +8881,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -3038,7 +8898,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -3055,7 +8915,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -3072,7 +8932,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -3087,7 +8947,7 @@
         <v>93</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H96" t="s">
         <v>98</v>
@@ -3095,7 +8955,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3112,7 +8972,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -3129,7 +8989,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -3146,7 +9006,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -3163,7 +9023,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -3186,4 +9046,118 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE627C-8545-DA43-9D48-304DAB5292F1}">
+  <dimension ref="J3:S31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="10:19" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" t="s">
+        <v>165</v>
+      </c>
+      <c r="N30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>87</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/evaluation/experiment/data.xlsx
+++ b/evaluation/experiment/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/Huber.ER2CDS/evaluation/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/ER2CDS/evaluation/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB4007-DAAC-6443-B88A-034FCD2345A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB1AB8-3674-9A43-B22D-31784921A806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="700" windowWidth="45000" windowHeight="22840" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="172">
   <si>
     <t>/DMO/I_Travel_D</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
   </si>
 </sst>
 </file>
@@ -816,64 +819,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>I_ACMSettlmtCtnHdrCostRevCkpt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I_BkPOABankAccount</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I_BPRelshpCntctPersnEmlAddrTP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I_BusPartMobileNumberGovTP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I_FieldLogisticsSupplier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I_FinSubstitutionRuleSubstnTP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>I_MDOFIELD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>I_MobileUserSession</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I_ProdnRtgOperationTP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I_SourcingProject</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Z_I_AUSSENLAGER</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Z_I_BESTELLANFORDERUNG</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Z_I_CHANGEDOCUMENTITEM</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Z_I_DELIVANALYSIS</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Z_I_MKPF</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Z_I_BESTELLANFORDERUNG</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
+                  <c:v>Z_I_Notification</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Z_I_PRODUCTION</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Z_I_PURCHDOCBASE</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Z_I_SDSERIALNUMBER</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Z_I_SERIALNMBRDELIVERY</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Z_I_CHANGEDOCUMENTITEM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Z_I_DELIVANALYSIS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Z_I_PRODUCTION</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Z_I_PURCHDOCBASE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Z_I_AUSSENLAGER</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Z_I_SDSERIALNUMBER</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Z_I_Notification</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>I_ACMSettlmtCtnHdrCostRevCkpt</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>I_MobileUserSession</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>I_MDOFIELD</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>I_FinSubstitutionRuleSubstnTP</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>I_FieldLogisticsSupplier</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>I_BkPOABankAccount</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>I_BusPartMobileNumberGovTP</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>I_BPRelshpCntctPersnEmlAddrTP</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>I_ProdnRtgOperationTP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>I_SourcingProject</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -885,52 +888,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
@@ -939,10 +942,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6355,12 +6358,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:F21" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}" name="Table2" displayName="Table2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G21" xr:uid="{E073B26E-32AF-5C4E-B08C-DB3284897244}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9DADB49-9E36-4445-8133-ABDB69FA8F28}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{613C137D-B3C7-D04E-9099-6B9913178B57}" name="Relations"/>
     <tableColumn id="7" xr3:uid="{F8378F5E-1B23-044B-BCCF-413DF1BCC0A9}" name="Elements"/>
+    <tableColumn id="8" xr3:uid="{E55C92D7-31C0-0A49-8359-23FFB5FC7A52}" name="Lines of Code"/>
     <tableColumn id="3" xr3:uid="{A224C5CE-8087-2248-919C-820DCD052F2A}" name="Syntax"/>
     <tableColumn id="4" xr3:uid="{84D5766F-5980-E54C-924A-B5E993FA9B1F}" name="Output"/>
     <tableColumn id="6" xr3:uid="{015383A4-202E-814F-96B5-E37F45DDEB57}" name="Text"/>
@@ -6370,15 +6377,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52FD4B8-3A75-5E40-B40C-6E4C40558033}" name="Table1" displayName="Table1" ref="A1:H101" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H101" xr:uid="{A52FD4B8-3A75-5E40-B40C-6E4C40558033}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A52FD4B8-3A75-5E40-B40C-6E4C40558033}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I101" xr:uid="{A52FD4B8-3A75-5E40-B40C-6E4C40558033}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
     <sortCondition ref="A1:A101"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0E2B2ADD-75B5-8545-AD31-04FADB27DD24}" name="Name" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D671539F-52F9-9147-AEF6-776A08EE1F44}" name="Relations"/>
     <tableColumn id="3" xr3:uid="{18A5DAFF-5C5B-3D47-B1C0-95E4A95C54E0}" name="Elements"/>
+    <tableColumn id="9" xr3:uid="{503635CE-B351-B545-8623-ED9CCB4C1B1C}" name="Lines of Code"/>
     <tableColumn id="4" xr3:uid="{69016DE4-947B-2B47-B3DE-46C2664BB110}" name="Imported"/>
     <tableColumn id="5" xr3:uid="{16125078-5F1D-4C43-A141-CEC152CE33BB}" name="Display"/>
     <tableColumn id="6" xr3:uid="{3BCAC806-70E9-8B40-B033-98A78B0476C2}" name="Text"/>
@@ -6706,21 +6714,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4672D2B8-471A-1F4B-AB68-DDF5C0CFA150}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="88.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -6730,440 +6739,522 @@
       <c r="C1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
         <v>84</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>MIN(Table2[Relations])</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>MAX(Table2[Relations])</f>
         <v>23</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>AVERAGE(Table2[Relations])</f>
         <v>5.55</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>STDEV(Table2[Relations])</f>
         <v>6.1170598372610003</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" t="s">
         <v>90</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>MIN(Table2[Elements])</f>
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>MAX(Table2[Elements])</f>
         <v>128</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>AVERAGE(Table2[Elements])</f>
         <v>31.05</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>STDEV(Table2[Elements])</f>
         <v>30.787001700136546</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4">
+        <f>MIN(Table2[Lines of Code])</f>
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <f>MAX(Table2[Lines of Code])</f>
+        <v>221</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(Table2[Lines of Code])</f>
+        <v>65.3</v>
+      </c>
+      <c r="N4">
+        <f>STDEV(Table2[Lines of Code])</f>
+        <v>53.505631774411818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D12">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>221</v>
       </c>
       <c r="E17" t="s">
         <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>128</v>
-      </c>
-      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
         <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7176,24 +7267,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F650F4-ED0B-E44F-A328-2BD491C06275}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="60.1640625" customWidth="1"/>
-    <col min="7" max="7" width="85.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" customWidth="1"/>
+    <col min="8" max="8" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -7203,38 +7295,41 @@
       <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7244,33 +7339,36 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
+      <c r="D2">
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>MIN(Table1[Relations])</f>
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>MAX(Table1[Relations])</f>
         <v>30</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f>AVERAGE(Table1[Relations])</f>
         <v>3.89</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f>STDEV(Table1[Relations])</f>
         <v>4.9967565237437537</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7280,33 +7378,36 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>93</v>
+      <c r="D3">
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
         <v>90</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>MIN(Table1[Elements])</f>
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>MAX(Table1[Elements])</f>
         <v>325</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <f>AVERAGE(Table1[Elements])</f>
         <v>34.380000000000003</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f>STDEV(Table1[Elements])</f>
         <v>49.347414042959464</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7316,14 +7417,36 @@
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>93</v>
+      <c r="D4">
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4">
+        <f>MIN(Table1[Lines of Code])</f>
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <f>MAX(Table1[Lines of Code])</f>
+        <v>1115</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(Table1[Lines of Code])</f>
+        <v>116.76</v>
+      </c>
+      <c r="P4">
+        <f>STDEV(Table1[Lines of Code])</f>
+        <v>132.4048825734645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7333,14 +7456,17 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>93</v>
+      <c r="D5">
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7350,14 +7476,17 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>93</v>
+      <c r="D6">
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -7367,14 +7496,17 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>93</v>
+      <c r="D7">
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -7384,14 +7516,17 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>93</v>
+      <c r="D8">
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7401,14 +7536,17 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>93</v>
+      <c r="D9">
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -7418,14 +7556,17 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>93</v>
+      <c r="D10">
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -7435,14 +7576,17 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>93</v>
+      <c r="D11">
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -7452,14 +7596,17 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>93</v>
+      <c r="D12">
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -7469,14 +7616,17 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>93</v>
+      <c r="D13">
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7486,14 +7636,17 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>93</v>
+      <c r="D14">
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7503,14 +7656,17 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>93</v>
+      <c r="D15">
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7520,14 +7676,17 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>93</v>
+      <c r="D16">
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -7537,14 +7696,17 @@
       <c r="C17">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>93</v>
+      <c r="D17">
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7554,14 +7716,17 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>93</v>
+      <c r="D18">
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -7571,14 +7736,17 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
+      <c r="D19">
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -7588,14 +7756,17 @@
       <c r="C20">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
-        <v>93</v>
+      <c r="D20">
+        <v>119</v>
       </c>
       <c r="E20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -7605,14 +7776,17 @@
       <c r="C21">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>93</v>
+      <c r="D21">
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -7622,14 +7796,17 @@
       <c r="C22">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>93</v>
+      <c r="D22">
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -7639,14 +7816,17 @@
       <c r="C23">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>93</v>
+      <c r="D23">
+        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -7656,14 +7836,17 @@
       <c r="C24">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
-        <v>93</v>
+      <c r="D24">
+        <v>173</v>
       </c>
       <c r="E24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -7673,14 +7856,17 @@
       <c r="C25">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
-        <v>93</v>
+      <c r="D25">
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -7690,14 +7876,17 @@
       <c r="C26">
         <v>143</v>
       </c>
-      <c r="D26" t="s">
-        <v>93</v>
+      <c r="D26">
+        <v>218</v>
       </c>
       <c r="E26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -7707,14 +7896,17 @@
       <c r="C27">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
-        <v>93</v>
+      <c r="D27">
+        <v>85</v>
       </c>
       <c r="E27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -7724,14 +7916,17 @@
       <c r="C28">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
-        <v>93</v>
+      <c r="D28">
+        <v>79</v>
       </c>
       <c r="E28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -7741,14 +7936,17 @@
       <c r="C29">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
-        <v>93</v>
+      <c r="D29">
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -7758,20 +7956,23 @@
       <c r="C30">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>93</v>
+      <c r="D30">
+        <v>121</v>
       </c>
       <c r="E30" t="s">
         <v>93</v>
       </c>
       <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
         <v>97</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -7781,14 +7982,17 @@
       <c r="C31">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
-        <v>93</v>
+      <c r="D31">
+        <v>104</v>
       </c>
       <c r="E31" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -7798,14 +8002,17 @@
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>93</v>
+      <c r="D32">
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -7815,14 +8022,17 @@
       <c r="C33">
         <v>53</v>
       </c>
-      <c r="D33" t="s">
-        <v>93</v>
+      <c r="D33">
+        <v>119</v>
       </c>
       <c r="E33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -7832,14 +8042,17 @@
       <c r="C34">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
-        <v>93</v>
+      <c r="D34">
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -7849,17 +8062,20 @@
       <c r="C35">
         <v>12</v>
       </c>
-      <c r="D35" t="s">
-        <v>93</v>
+      <c r="D35">
+        <v>59</v>
       </c>
       <c r="E35" t="s">
         <v>93</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -7869,14 +8085,17 @@
       <c r="C36">
         <v>10</v>
       </c>
-      <c r="D36" t="s">
-        <v>93</v>
+      <c r="D36">
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -7886,20 +8105,23 @@
       <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>93</v>
+      <c r="D37">
+        <v>71</v>
       </c>
       <c r="E37" t="s">
         <v>93</v>
       </c>
       <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
@@ -7909,17 +8131,20 @@
       <c r="C38">
         <v>140</v>
       </c>
-      <c r="D38" t="s">
-        <v>93</v>
+      <c r="D38">
+        <v>1115</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
       </c>
       <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -7929,14 +8154,17 @@
       <c r="C39">
         <v>30</v>
       </c>
-      <c r="D39" t="s">
-        <v>93</v>
+      <c r="D39">
+        <v>218</v>
       </c>
       <c r="E39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -7946,14 +8174,17 @@
       <c r="C40">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
-        <v>93</v>
+      <c r="D40">
+        <v>185</v>
       </c>
       <c r="E40" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -7963,14 +8194,17 @@
       <c r="C41">
         <v>42</v>
       </c>
-      <c r="D41" t="s">
-        <v>93</v>
+      <c r="D41">
+        <v>151</v>
       </c>
       <c r="E41" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -7980,20 +8214,23 @@
       <c r="C42">
         <v>21</v>
       </c>
-      <c r="D42" t="s">
-        <v>93</v>
+      <c r="D42">
+        <v>117</v>
       </c>
       <c r="E42" t="s">
         <v>93</v>
       </c>
       <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
         <v>162</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -8003,14 +8240,17 @@
       <c r="C43">
         <v>22</v>
       </c>
-      <c r="D43" t="s">
-        <v>93</v>
+      <c r="D43">
+        <v>138</v>
       </c>
       <c r="E43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -8020,14 +8260,17 @@
       <c r="C44">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
-        <v>93</v>
+      <c r="D44">
+        <v>51</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
@@ -8037,14 +8280,17 @@
       <c r="C45">
         <v>66</v>
       </c>
-      <c r="D45" t="s">
-        <v>93</v>
+      <c r="D45">
+        <v>534</v>
       </c>
       <c r="E45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -8054,14 +8300,17 @@
       <c r="C46">
         <v>32</v>
       </c>
-      <c r="D46" t="s">
-        <v>93</v>
+      <c r="D46">
+        <v>156</v>
       </c>
       <c r="E46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -8071,14 +8320,17 @@
       <c r="C47">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>93</v>
+      <c r="D47">
+        <v>121</v>
       </c>
       <c r="E47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -8088,20 +8340,23 @@
       <c r="C48">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
-        <v>93</v>
+      <c r="D48">
+        <v>224</v>
       </c>
       <c r="E48" t="s">
         <v>93</v>
       </c>
       <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
         <v>97</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -8111,20 +8366,23 @@
       <c r="C49">
         <v>38</v>
       </c>
-      <c r="D49" t="s">
-        <v>93</v>
+      <c r="D49">
+        <v>206</v>
       </c>
       <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
         <v>97</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -8134,14 +8392,17 @@
       <c r="C50">
         <v>16</v>
       </c>
-      <c r="D50" t="s">
-        <v>93</v>
+      <c r="D50">
+        <v>70</v>
       </c>
       <c r="E50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -8151,14 +8412,17 @@
       <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" t="s">
-        <v>93</v>
+      <c r="D51">
+        <v>78</v>
       </c>
       <c r="E51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -8168,14 +8432,17 @@
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>93</v>
+      <c r="D52">
+        <v>61</v>
       </c>
       <c r="E52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -8185,14 +8452,17 @@
       <c r="C53">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
-        <v>93</v>
+      <c r="D53">
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -8202,14 +8472,17 @@
       <c r="C54">
         <v>17</v>
       </c>
-      <c r="D54" t="s">
-        <v>93</v>
+      <c r="D54">
+        <v>69</v>
       </c>
       <c r="E54" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -8219,14 +8492,17 @@
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
-        <v>93</v>
+      <c r="D55">
+        <v>56</v>
       </c>
       <c r="E55" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -8236,14 +8512,17 @@
       <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
-        <v>93</v>
+      <c r="D56">
+        <v>36</v>
       </c>
       <c r="E56" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -8253,14 +8532,17 @@
       <c r="C57">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>93</v>
+      <c r="D57">
+        <v>49</v>
       </c>
       <c r="E57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -8270,14 +8552,17 @@
       <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58" t="s">
-        <v>93</v>
+      <c r="D58">
+        <v>49</v>
       </c>
       <c r="E58" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -8287,14 +8572,17 @@
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>93</v>
+      <c r="D59">
+        <v>41</v>
       </c>
       <c r="E59" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -8304,14 +8592,17 @@
       <c r="C60">
         <v>38</v>
       </c>
-      <c r="D60" t="s">
-        <v>93</v>
+      <c r="D60">
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -8321,14 +8612,17 @@
       <c r="C61">
         <v>17</v>
       </c>
-      <c r="D61" t="s">
-        <v>93</v>
+      <c r="D61">
+        <v>79</v>
       </c>
       <c r="E61" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -8338,14 +8632,17 @@
       <c r="C62">
         <v>70</v>
       </c>
-      <c r="D62" t="s">
-        <v>93</v>
+      <c r="D62">
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
@@ -8355,20 +8652,23 @@
       <c r="C63">
         <v>122</v>
       </c>
-      <c r="D63" t="s">
-        <v>93</v>
+      <c r="D63">
+        <v>269</v>
       </c>
       <c r="E63" t="s">
         <v>93</v>
       </c>
       <c r="F63" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
         <v>94</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -8378,14 +8678,17 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
-        <v>93</v>
+      <c r="D64">
+        <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
@@ -8395,14 +8698,17 @@
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
-        <v>93</v>
+      <c r="D65">
+        <v>55</v>
       </c>
       <c r="E65" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
@@ -8412,14 +8718,17 @@
       <c r="C66">
         <v>4</v>
       </c>
-      <c r="D66" t="s">
-        <v>93</v>
+      <c r="D66">
+        <v>56</v>
       </c>
       <c r="E66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -8429,14 +8738,17 @@
       <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" t="s">
-        <v>93</v>
+      <c r="D67">
+        <v>55</v>
       </c>
       <c r="E67" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -8446,14 +8758,17 @@
       <c r="C68">
         <v>12</v>
       </c>
-      <c r="D68" t="s">
-        <v>93</v>
+      <c r="D68">
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -8463,14 +8778,17 @@
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>93</v>
+      <c r="D69">
+        <v>51</v>
       </c>
       <c r="E69" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -8480,14 +8798,17 @@
       <c r="C70">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
-        <v>93</v>
+      <c r="D70">
+        <v>51</v>
       </c>
       <c r="E70" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>42</v>
       </c>
@@ -8497,14 +8818,17 @@
       <c r="C71">
         <v>37</v>
       </c>
-      <c r="D71" t="s">
-        <v>93</v>
+      <c r="D71">
+        <v>68</v>
       </c>
       <c r="E71" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>38</v>
       </c>
@@ -8514,14 +8838,17 @@
       <c r="C72">
         <v>8</v>
       </c>
-      <c r="D72" t="s">
-        <v>93</v>
+      <c r="D72">
+        <v>46</v>
       </c>
       <c r="E72" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
@@ -8531,14 +8858,17 @@
       <c r="C73">
         <v>2</v>
       </c>
-      <c r="D73" t="s">
-        <v>93</v>
+      <c r="D73">
+        <v>31</v>
       </c>
       <c r="E73" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>34</v>
       </c>
@@ -8548,14 +8878,17 @@
       <c r="C74">
         <v>10</v>
       </c>
-      <c r="D74" t="s">
-        <v>93</v>
+      <c r="D74">
+        <v>57</v>
       </c>
       <c r="E74" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -8565,14 +8898,17 @@
       <c r="C75">
         <v>89</v>
       </c>
-      <c r="D75" t="s">
-        <v>93</v>
+      <c r="D75">
+        <v>230</v>
       </c>
       <c r="E75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
@@ -8582,14 +8918,17 @@
       <c r="C76">
         <v>52</v>
       </c>
-      <c r="D76" t="s">
-        <v>93</v>
+      <c r="D76">
+        <v>201</v>
       </c>
       <c r="E76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>44</v>
       </c>
@@ -8599,14 +8938,17 @@
       <c r="C77">
         <v>2</v>
       </c>
-      <c r="D77" t="s">
-        <v>93</v>
+      <c r="D77">
+        <v>38</v>
       </c>
       <c r="E77" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -8616,14 +8958,17 @@
       <c r="C78">
         <v>132</v>
       </c>
-      <c r="D78" t="s">
-        <v>93</v>
+      <c r="D78">
+        <v>294</v>
       </c>
       <c r="E78" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
@@ -8633,17 +8978,20 @@
       <c r="C79">
         <v>29</v>
       </c>
-      <c r="D79" t="s">
-        <v>93</v>
+      <c r="D79">
+        <v>137</v>
       </c>
       <c r="E79" t="s">
         <v>93</v>
       </c>
       <c r="F79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
@@ -8653,20 +9001,23 @@
       <c r="C80">
         <v>13</v>
       </c>
-      <c r="D80" t="s">
-        <v>93</v>
+      <c r="D80">
+        <v>62</v>
       </c>
       <c r="E80" t="s">
         <v>93</v>
       </c>
       <c r="F80" t="s">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s">
         <v>100</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>121</v>
       </c>
@@ -8676,14 +9027,17 @@
       <c r="C81">
         <v>20</v>
       </c>
-      <c r="D81" t="s">
-        <v>93</v>
+      <c r="D81">
+        <v>69</v>
       </c>
       <c r="E81" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>113</v>
       </c>
@@ -8693,17 +9047,20 @@
       <c r="C82">
         <v>167</v>
       </c>
-      <c r="D82" t="s">
-        <v>93</v>
+      <c r="D82">
+        <v>257</v>
       </c>
       <c r="E82" t="s">
         <v>93</v>
       </c>
       <c r="F82" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>122</v>
       </c>
@@ -8713,17 +9070,20 @@
       <c r="C83">
         <v>92</v>
       </c>
-      <c r="D83" t="s">
-        <v>93</v>
+      <c r="D83">
+        <v>206</v>
       </c>
       <c r="E83" t="s">
         <v>93</v>
       </c>
       <c r="F83" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -8733,17 +9093,20 @@
       <c r="C84">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>93</v>
+      <c r="D84">
+        <v>63</v>
       </c>
       <c r="E84" t="s">
         <v>93</v>
       </c>
       <c r="F84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G84" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>115</v>
       </c>
@@ -8753,14 +9116,17 @@
       <c r="C85">
         <v>12</v>
       </c>
-      <c r="D85" t="s">
-        <v>93</v>
+      <c r="D85">
+        <v>116</v>
       </c>
       <c r="E85" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
@@ -8770,14 +9136,17 @@
       <c r="C86">
         <v>10</v>
       </c>
-      <c r="D86" t="s">
-        <v>93</v>
+      <c r="D86">
+        <v>51</v>
       </c>
       <c r="E86" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>125</v>
       </c>
@@ -8787,14 +9156,17 @@
       <c r="C87">
         <v>29</v>
       </c>
-      <c r="D87" t="s">
-        <v>93</v>
+      <c r="D87">
+        <v>71</v>
       </c>
       <c r="E87" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>123</v>
       </c>
@@ -8804,14 +9176,17 @@
       <c r="C88">
         <v>19</v>
       </c>
-      <c r="D88" t="s">
-        <v>93</v>
+      <c r="D88">
+        <v>90</v>
       </c>
       <c r="E88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>118</v>
       </c>
@@ -8821,14 +9196,17 @@
       <c r="C89">
         <v>5</v>
       </c>
-      <c r="D89" t="s">
-        <v>93</v>
+      <c r="D89">
+        <v>63</v>
       </c>
       <c r="E89" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>114</v>
       </c>
@@ -8838,14 +9216,17 @@
       <c r="C90">
         <v>7</v>
       </c>
-      <c r="D90" t="s">
-        <v>93</v>
+      <c r="D90">
+        <v>72</v>
       </c>
       <c r="E90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
@@ -8855,14 +9236,17 @@
       <c r="C91">
         <v>223</v>
       </c>
-      <c r="D91" t="s">
-        <v>93</v>
+      <c r="D91">
+        <v>340</v>
       </c>
       <c r="E91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -8872,14 +9256,17 @@
       <c r="C92">
         <v>94</v>
       </c>
-      <c r="D92" t="s">
-        <v>93</v>
+      <c r="D92">
+        <v>176</v>
       </c>
       <c r="E92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
@@ -8889,14 +9276,17 @@
       <c r="C93">
         <v>325</v>
       </c>
-      <c r="D93" t="s">
-        <v>93</v>
+      <c r="D93">
+        <v>477</v>
       </c>
       <c r="E93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -8906,14 +9296,17 @@
       <c r="C94">
         <v>26</v>
       </c>
-      <c r="D94" t="s">
-        <v>93</v>
+      <c r="D94">
+        <v>126</v>
       </c>
       <c r="E94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>108</v>
       </c>
@@ -8923,14 +9316,17 @@
       <c r="C95">
         <v>21</v>
       </c>
-      <c r="D95" t="s">
-        <v>93</v>
+      <c r="D95">
+        <v>114</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -8940,20 +9336,23 @@
       <c r="C96">
         <v>121</v>
       </c>
-      <c r="D96" t="s">
-        <v>93</v>
+      <c r="D96">
+        <v>193</v>
       </c>
       <c r="E96" t="s">
         <v>93</v>
       </c>
       <c r="F96" t="s">
+        <v>93</v>
+      </c>
+      <c r="G96" t="s">
         <v>110</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
@@ -8963,14 +9362,17 @@
       <c r="C97">
         <v>21</v>
       </c>
-      <c r="D97" t="s">
-        <v>93</v>
+      <c r="D97">
+        <v>63</v>
       </c>
       <c r="E97" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -8980,14 +9382,17 @@
       <c r="C98">
         <v>60</v>
       </c>
-      <c r="D98" t="s">
-        <v>93</v>
+      <c r="D98">
+        <v>144</v>
       </c>
       <c r="E98" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>105</v>
       </c>
@@ -8997,14 +9402,17 @@
       <c r="C99">
         <v>5</v>
       </c>
-      <c r="D99" t="s">
-        <v>93</v>
+      <c r="D99">
+        <v>41</v>
       </c>
       <c r="E99" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -9014,14 +9422,17 @@
       <c r="C100">
         <v>44</v>
       </c>
-      <c r="D100" t="s">
-        <v>93</v>
+      <c r="D100">
+        <v>128</v>
       </c>
       <c r="E100" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -9031,10 +9442,13 @@
       <c r="C101">
         <v>36</v>
       </c>
-      <c r="D101" t="s">
-        <v>93</v>
+      <c r="D101">
+        <v>106</v>
       </c>
       <c r="E101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" t="s">
         <v>93</v>
       </c>
     </row>

--- a/evaluation/experiment/data.xlsx
+++ b/evaluation/experiment/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/git_proj/ER2CDS/evaluation/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallushuber/dev/ER2CDS/evaluation/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB1AB8-3674-9A43-B22D-31784921A806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4332A-2F7E-5C4C-AF76-D71F616E59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="700" windowWidth="45000" windowHeight="22840" xr2:uid="{AB73C851-2570-4848-9E24-9A6016711A1A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="160">
   <si>
     <t>/DMO/I_Travel_D</t>
   </si>
@@ -322,27 +322,12 @@
     <t>X</t>
   </si>
   <si>
-    <t>Multiple Relations to same entityname. Alias not resolved correctly.</t>
-  </si>
-  <si>
     <t>Datatype of attributes BUSINESSPARTNERCATEGORY and BUSINESSPARTNERCATEGORY incompatible</t>
   </si>
   <si>
-    <t>Only Equal-Sign is supported in Join Clause.</t>
-  </si>
-  <si>
-    <t>Join Clause with fix value not supported.</t>
-  </si>
-  <si>
     <t>Relationship has no join clauses.</t>
   </si>
   <si>
-    <t>Datatype of attributes FLDLOGSOVERDUEBYVALUE and FLDLOGSOVERDUEBYVALUE incompatible</t>
-  </si>
-  <si>
-    <t>Join Clause on Associationattribute not supported</t>
-  </si>
-  <si>
     <t>R_SRCGPROJQTNITMCMMDTYTERMTP</t>
   </si>
   <si>
@@ -370,9 +355,6 @@
     <t>R_WASTESTREAMDSPLCHNLTP</t>
   </si>
   <si>
-    <t>Self-associations not supported.</t>
-  </si>
-  <si>
     <t>R_TRDGDOC</t>
   </si>
   <si>
@@ -400,9 +382,6 @@
     <t>P_EWM_INBOUNDDLVHEADER01_2</t>
   </si>
   <si>
-    <t>Relationship null has no join clauses</t>
-  </si>
-  <si>
     <t>P_EWM_OUTBDLVORDDOCADDR01_2</t>
   </si>
   <si>
@@ -439,9 +418,6 @@
     <t>I_FieldLogisticsSupplier</t>
   </si>
   <si>
-    <t>Attributes of subassociation missing. Where-Clause missing.</t>
-  </si>
-  <si>
     <t>I_BkPOABankAccount</t>
   </si>
   <si>
@@ -451,21 +427,12 @@
     <t>I_BPRelshpCntctPersnEmlAddrTP</t>
   </si>
   <si>
-    <t>Attributes of subassociation missing. Reexport of subassociation missing.</t>
-  </si>
-  <si>
     <t>I_SourcingProject</t>
   </si>
   <si>
-    <t>Multiple association to same table not working. Cast/Concat not supported. Specific export of assocations.</t>
-  </si>
-  <si>
     <t>I_ProdnRtgOperationTP</t>
   </si>
   <si>
-    <t>Join Clause only equals. Where-Clause missing. Join Clause on fix values not supported.</t>
-  </si>
-  <si>
     <t>Inner join instead of Join (equivalent).</t>
   </si>
   <si>
@@ -505,9 +472,6 @@
     <t>Association in different order (equivalent). Tabelprefix on attributes (equivalent).</t>
   </si>
   <si>
-    <t>Tableprefix on attributes (equivalent). Reexport of subassociation missing. Where-Clause missing.</t>
-  </si>
-  <si>
     <t>Customer specific</t>
   </si>
   <si>
@@ -526,9 +490,6 @@
     <t>Output incorrect</t>
   </si>
   <si>
-    <t>Hierarchical associations not supported.</t>
-  </si>
-  <si>
     <t>Displayed</t>
   </si>
   <si>
@@ -554,6 +515,9 @@
   </si>
   <si>
     <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>Cast/Concat not supported. Specific export of assocations.</t>
   </si>
 </sst>
 </file>
@@ -715,7 +679,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -778,7 +742,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1045,7 +1009,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-AT"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1228,7 +1192,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1295,7 +1259,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2255,7 +2219,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2322,7 +2286,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2657,7 +2621,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3054,7 +3018,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6717,7 +6681,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6740,7 +6704,7 @@
         <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>91</v>
@@ -6755,21 +6719,21 @@
         <v>83</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6787,7 +6751,7 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
         <v>84</v>
@@ -6811,7 +6775,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6829,7 +6793,7 @@
         <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
         <v>90</v>
@@ -6853,7 +6817,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -6867,11 +6831,11 @@
       <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
-        <v>137</v>
+      <c r="F4" t="s">
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K4">
         <f>MIN(Table2[Lines of Code])</f>
@@ -6892,7 +6856,7 @@
     </row>
     <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6906,13 +6870,16 @@
       <c r="E5" t="s">
         <v>93</v>
       </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6926,13 +6893,13 @@
       <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
-        <v>133</v>
+      <c r="F6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6950,12 +6917,12 @@
         <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -6973,12 +6940,12 @@
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6996,12 +6963,12 @@
         <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -7015,13 +6982,13 @@
       <c r="E10" t="s">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
-        <v>141</v>
+      <c r="F10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -7035,13 +7002,16 @@
       <c r="E11" t="s">
         <v>93</v>
       </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -7059,7 +7029,7 @@
         <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -7082,12 +7052,12 @@
         <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -7147,7 +7117,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -7185,7 +7155,7 @@
         <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -7208,7 +7178,7 @@
         <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -7231,12 +7201,12 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7254,7 +7224,7 @@
         <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -7270,7 +7240,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7296,7 +7266,7 @@
         <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>85</v>
@@ -7317,16 +7287,16 @@
         <v>83</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7427,7 +7397,7 @@
         <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M4">
         <f>MIN(Table1[Lines of Code])</f>
@@ -7965,11 +7935,8 @@
       <c r="F30" t="s">
         <v>93</v>
       </c>
-      <c r="G30" t="s">
-        <v>97</v>
-      </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -8071,9 +8038,6 @@
       <c r="F35" t="s">
         <v>93</v>
       </c>
-      <c r="H35" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -8114,16 +8078,13 @@
       <c r="F37" t="s">
         <v>93</v>
       </c>
-      <c r="G37" t="s">
-        <v>100</v>
-      </c>
       <c r="I37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -8141,7 +8102,7 @@
         <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -8223,12 +8184,6 @@
       <c r="F42" t="s">
         <v>93</v>
       </c>
-      <c r="G42" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -8349,14 +8304,8 @@
       <c r="F48" t="s">
         <v>93</v>
       </c>
-      <c r="G48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -8375,14 +8324,8 @@
       <c r="F49" t="s">
         <v>93</v>
       </c>
-      <c r="G49" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -8402,7 +8345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -8422,7 +8365,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -8442,7 +8385,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -8462,7 +8405,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -8482,7 +8425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -8502,7 +8445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -8522,7 +8465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -8542,7 +8485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -8562,7 +8505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
@@ -8582,7 +8525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -8602,7 +8545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -8622,7 +8565,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -8642,7 +8585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
@@ -8661,14 +8604,11 @@
       <c r="F63" t="s">
         <v>93</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>94</v>
       </c>
-      <c r="H63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
@@ -8688,7 +8628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
@@ -8708,7 +8648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
@@ -8728,7 +8668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -8748,7 +8688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -8768,7 +8708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -8788,7 +8728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -8808,7 +8748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>42</v>
       </c>
@@ -8828,7 +8768,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>38</v>
       </c>
@@ -8848,7 +8788,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
@@ -8868,7 +8808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>34</v>
       </c>
@@ -8888,7 +8828,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -8908,7 +8848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
@@ -8928,7 +8868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>44</v>
       </c>
@@ -8948,7 +8888,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -8968,7 +8908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
@@ -8987,13 +8927,10 @@
       <c r="F79" t="s">
         <v>93</v>
       </c>
-      <c r="G79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -9010,16 +8947,10 @@
       <c r="F80" t="s">
         <v>93</v>
       </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -9037,9 +8968,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -9056,13 +8987,10 @@
       <c r="F82" t="s">
         <v>93</v>
       </c>
-      <c r="G82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -9079,13 +9007,10 @@
       <c r="F83" t="s">
         <v>93</v>
       </c>
-      <c r="G83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -9103,12 +9028,12 @@
         <v>93</v>
       </c>
       <c r="G84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -9126,9 +9051,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -9146,9 +9071,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -9166,9 +9091,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -9186,9 +9111,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -9206,9 +9131,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -9226,9 +9151,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -9246,9 +9171,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -9266,9 +9191,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -9286,9 +9211,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -9306,9 +9231,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -9326,9 +9251,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -9345,16 +9270,10 @@
       <c r="F96" t="s">
         <v>93</v>
       </c>
-      <c r="G96" t="s">
-        <v>110</v>
-      </c>
-      <c r="I96" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -9374,7 +9293,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -9394,7 +9313,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -9414,7 +9333,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -9434,7 +9353,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -9466,7 +9385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE627C-8545-DA43-9D48-304DAB5292F1}">
   <dimension ref="J3:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -9484,21 +9403,21 @@
   <sheetData>
     <row r="3" spans="10:19" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="R3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="S3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="10:19" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -9507,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="R4">
         <v>10</v>
@@ -9518,7 +9437,7 @@
     </row>
     <row r="5" spans="10:19" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -9527,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -9541,16 +9460,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M30" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="N30" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="10:14" x14ac:dyDescent="0.2">
